--- a/config_11.9/shoping_config_cjj.xlsx
+++ b/config_11.9/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5776" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5861" uniqueCount="2035">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7733,6 +7733,121 @@
   </si>
   <si>
     <t>79400000,5540000,27,27,2000000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送福利券和苹果大战道具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","28福利券","水滴*1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,28,1,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","48福利券","水滴*2",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,48,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","98福利券","水滴*3",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,98,3,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","58福利券","水滴*3",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,58,3,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","98福利券","水滴*5",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,98,5,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","168福利券","水滴*10",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,168,10,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","168福利券","太阳*1",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,168,1,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","338福利券","太阳*2",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","338福利券","太阳*2",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,338,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","668福利券","太阳*5",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>19800000,688,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,688,5,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","1688福利券","太阳*10",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1688,10,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7960,7 +8075,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8219,6 +8334,12 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8232,9 +8353,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10693,13 +10811,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIG737"/>
+  <dimension ref="A1:AIG749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H703" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H724" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I732" sqref="I732"/>
+      <selection pane="bottomRight" activeCell="A738" sqref="A738:XFD749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -60748,7 +60866,7 @@
       <c r="G655" s="79" t="s">
         <v>1902</v>
       </c>
-      <c r="H655" s="88" t="s">
+      <c r="H655" s="90" t="s">
         <v>1903</v>
       </c>
       <c r="K655" s="79" t="s">
@@ -60816,7 +60934,7 @@
       <c r="G656" s="78" t="s">
         <v>1904</v>
       </c>
-      <c r="H656" s="89"/>
+      <c r="H656" s="91"/>
       <c r="K656" s="79" t="s">
         <v>1608</v>
       </c>
@@ -60882,7 +61000,7 @@
       <c r="G657" s="78" t="s">
         <v>1905</v>
       </c>
-      <c r="H657" s="89"/>
+      <c r="H657" s="91"/>
       <c r="K657" s="79" t="s">
         <v>1609</v>
       </c>
@@ -60948,7 +61066,7 @@
       <c r="G658" s="78" t="s">
         <v>1907</v>
       </c>
-      <c r="H658" s="89"/>
+      <c r="H658" s="91"/>
       <c r="K658" s="79" t="s">
         <v>1611</v>
       </c>
@@ -61014,7 +61132,7 @@
       <c r="G659" s="78" t="s">
         <v>1908</v>
       </c>
-      <c r="H659" s="89"/>
+      <c r="H659" s="91"/>
       <c r="K659" s="79" t="s">
         <v>1612</v>
       </c>
@@ -61080,7 +61198,7 @@
       <c r="G660" s="78" t="s">
         <v>1909</v>
       </c>
-      <c r="H660" s="89"/>
+      <c r="H660" s="91"/>
       <c r="K660" s="79" t="s">
         <v>1613</v>
       </c>
@@ -61146,7 +61264,7 @@
       <c r="G661" s="78" t="s">
         <v>1911</v>
       </c>
-      <c r="H661" s="89"/>
+      <c r="H661" s="91"/>
       <c r="K661" s="79" t="s">
         <v>1615</v>
       </c>
@@ -62703,7 +62821,7 @@
       <c r="G683" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H683" s="86" t="s">
+      <c r="H683" s="88" t="s">
         <v>1898</v>
       </c>
       <c r="K683" s="76" t="s">
@@ -62771,7 +62889,7 @@
       <c r="G684" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H684" s="86"/>
+      <c r="H684" s="88"/>
       <c r="K684" s="76" t="s">
         <v>1575</v>
       </c>
@@ -62837,7 +62955,7 @@
       <c r="G685" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H685" s="86"/>
+      <c r="H685" s="88"/>
       <c r="K685" s="76" t="s">
         <v>1577</v>
       </c>
@@ -62903,7 +63021,7 @@
       <c r="G686" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H686" s="86"/>
+      <c r="H686" s="88"/>
       <c r="K686" s="76" t="s">
         <v>1579</v>
       </c>
@@ -62969,7 +63087,7 @@
       <c r="G687" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H687" s="86"/>
+      <c r="H687" s="88"/>
       <c r="K687" s="76" t="s">
         <v>1581</v>
       </c>
@@ -63035,7 +63153,7 @@
       <c r="G688" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H688" s="86"/>
+      <c r="H688" s="88"/>
       <c r="K688" s="76" t="s">
         <v>1583</v>
       </c>
@@ -63101,7 +63219,7 @@
       <c r="G689" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H689" s="86" t="s">
+      <c r="H689" s="88" t="s">
         <v>1899</v>
       </c>
       <c r="K689" s="76" t="s">
@@ -63169,7 +63287,7 @@
       <c r="G690" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H690" s="87"/>
+      <c r="H690" s="89"/>
       <c r="K690" s="76" t="s">
         <v>1575</v>
       </c>
@@ -63235,7 +63353,7 @@
       <c r="G691" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H691" s="87"/>
+      <c r="H691" s="89"/>
       <c r="K691" s="76" t="s">
         <v>1577</v>
       </c>
@@ -63301,7 +63419,7 @@
       <c r="G692" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H692" s="87"/>
+      <c r="H692" s="89"/>
       <c r="K692" s="76" t="s">
         <v>1579</v>
       </c>
@@ -63367,7 +63485,7 @@
       <c r="G693" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H693" s="87"/>
+      <c r="H693" s="89"/>
       <c r="K693" s="76" t="s">
         <v>1581</v>
       </c>
@@ -63433,7 +63551,7 @@
       <c r="G694" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H694" s="87"/>
+      <c r="H694" s="89"/>
       <c r="K694" s="76" t="s">
         <v>1583</v>
       </c>
@@ -63730,7 +63848,7 @@
       <c r="G698" s="79" t="s">
         <v>1901</v>
       </c>
-      <c r="H698" s="88" t="s">
+      <c r="H698" s="90" t="s">
         <v>1874</v>
       </c>
       <c r="K698" s="79" t="s">
@@ -63798,7 +63916,7 @@
       <c r="G699" s="78" t="s">
         <v>1904</v>
       </c>
-      <c r="H699" s="89"/>
+      <c r="H699" s="91"/>
       <c r="K699" s="79" t="s">
         <v>1608</v>
       </c>
@@ -63864,7 +63982,7 @@
       <c r="G700" s="78" t="s">
         <v>1905</v>
       </c>
-      <c r="H700" s="89"/>
+      <c r="H700" s="91"/>
       <c r="K700" s="79" t="s">
         <v>1609</v>
       </c>
@@ -63930,7 +64048,7 @@
       <c r="G701" s="78" t="s">
         <v>1906</v>
       </c>
-      <c r="H701" s="89"/>
+      <c r="H701" s="91"/>
       <c r="K701" s="79" t="s">
         <v>1611</v>
       </c>
@@ -63996,7 +64114,7 @@
       <c r="G702" s="78" t="s">
         <v>1908</v>
       </c>
-      <c r="H702" s="89"/>
+      <c r="H702" s="91"/>
       <c r="K702" s="79" t="s">
         <v>1612</v>
       </c>
@@ -64062,7 +64180,7 @@
       <c r="G703" s="78" t="s">
         <v>1909</v>
       </c>
-      <c r="H703" s="89"/>
+      <c r="H703" s="91"/>
       <c r="K703" s="79" t="s">
         <v>1613</v>
       </c>
@@ -64128,7 +64246,7 @@
       <c r="G704" s="78" t="s">
         <v>1910</v>
       </c>
-      <c r="H704" s="89"/>
+      <c r="H704" s="91"/>
       <c r="K704" s="79" t="s">
         <v>1615</v>
       </c>
@@ -64482,7 +64600,7 @@
       <c r="G709" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H709" s="90" t="s">
+      <c r="H709" s="92" t="s">
         <v>1914</v>
       </c>
       <c r="J709" s="85" t="s">
@@ -64553,7 +64671,7 @@
       <c r="G710" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H710" s="90"/>
+      <c r="H710" s="92"/>
       <c r="J710" s="85" t="s">
         <v>1538</v>
       </c>
@@ -64622,7 +64740,7 @@
       <c r="G711" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H711" s="90"/>
+      <c r="H711" s="92"/>
       <c r="J711" s="85" t="s">
         <v>1538</v>
       </c>
@@ -64691,7 +64809,7 @@
       <c r="G712" s="85" t="s">
         <v>1940</v>
       </c>
-      <c r="H712" s="90"/>
+      <c r="H712" s="92"/>
       <c r="J712" s="85" t="s">
         <v>1538</v>
       </c>
@@ -64760,7 +64878,7 @@
       <c r="G713" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H713" s="90"/>
+      <c r="H713" s="92"/>
       <c r="J713" s="85" t="s">
         <v>1545</v>
       </c>
@@ -64829,7 +64947,7 @@
       <c r="G714" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H714" s="90"/>
+      <c r="H714" s="92"/>
       <c r="J714" s="85" t="s">
         <v>1545</v>
       </c>
@@ -64898,7 +65016,7 @@
       <c r="G715" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H715" s="90"/>
+      <c r="H715" s="92"/>
       <c r="J715" s="85" t="s">
         <v>1545</v>
       </c>
@@ -64967,7 +65085,7 @@
       <c r="G716" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H716" s="90"/>
+      <c r="H716" s="92"/>
       <c r="J716" s="85" t="s">
         <v>1545</v>
       </c>
@@ -65036,7 +65154,7 @@
       <c r="G717" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H717" s="90"/>
+      <c r="H717" s="92"/>
       <c r="J717" s="85" t="s">
         <v>1552</v>
       </c>
@@ -65105,7 +65223,7 @@
       <c r="G718" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H718" s="90"/>
+      <c r="H718" s="92"/>
       <c r="J718" s="85" t="s">
         <v>1552</v>
       </c>
@@ -65174,7 +65292,7 @@
       <c r="G719" s="85" t="s">
         <v>1940</v>
       </c>
-      <c r="H719" s="90"/>
+      <c r="H719" s="92"/>
       <c r="J719" s="85" t="s">
         <v>1552</v>
       </c>
@@ -65243,7 +65361,7 @@
       <c r="G720" s="85" t="s">
         <v>1947</v>
       </c>
-      <c r="H720" s="90"/>
+      <c r="H720" s="92"/>
       <c r="J720" s="85" t="s">
         <v>1552</v>
       </c>
@@ -65312,7 +65430,7 @@
       <c r="G721" s="85" t="s">
         <v>1947</v>
       </c>
-      <c r="H721" s="90"/>
+      <c r="H721" s="92"/>
       <c r="J721" s="85" t="s">
         <v>1441</v>
       </c>
@@ -65381,7 +65499,7 @@
       <c r="G722" s="85" t="s">
         <v>1956</v>
       </c>
-      <c r="H722" s="90"/>
+      <c r="H722" s="92"/>
       <c r="J722" s="85" t="s">
         <v>1441</v>
       </c>
@@ -65450,7 +65568,7 @@
       <c r="G723" s="85" t="s">
         <v>1956</v>
       </c>
-      <c r="H723" s="90"/>
+      <c r="H723" s="92"/>
       <c r="J723" s="85" t="s">
         <v>1441</v>
       </c>
@@ -65519,7 +65637,7 @@
       <c r="G724" s="85" t="s">
         <v>1963</v>
       </c>
-      <c r="H724" s="90"/>
+      <c r="H724" s="92"/>
       <c r="J724" s="85" t="s">
         <v>1441</v>
       </c>
@@ -65645,7 +65763,7 @@
       <c r="G726" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H726" s="91" t="s">
+      <c r="H726" s="87" t="s">
         <v>1969</v>
       </c>
       <c r="J726" s="21" t="s">
@@ -65716,7 +65834,7 @@
       <c r="G727" s="31" t="s">
         <v>1973</v>
       </c>
-      <c r="H727" s="91"/>
+      <c r="H727" s="87"/>
       <c r="J727" s="21" t="s">
         <v>1545</v>
       </c>
@@ -65785,7 +65903,7 @@
       <c r="G728" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H728" s="91"/>
+      <c r="H728" s="87"/>
       <c r="J728" s="21" t="s">
         <v>1545</v>
       </c>
@@ -65854,7 +65972,7 @@
       <c r="G729" s="31" t="s">
         <v>1973</v>
       </c>
-      <c r="H729" s="91"/>
+      <c r="H729" s="87"/>
       <c r="J729" s="21" t="s">
         <v>1545</v>
       </c>
@@ -65923,7 +66041,7 @@
       <c r="G730" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H730" s="91"/>
+      <c r="H730" s="87"/>
       <c r="J730" s="21" t="s">
         <v>1552</v>
       </c>
@@ -65992,7 +66110,7 @@
       <c r="G731" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H731" s="91"/>
+      <c r="H731" s="87"/>
       <c r="J731" s="21" t="s">
         <v>1552</v>
       </c>
@@ -66061,7 +66179,7 @@
       <c r="G732" s="31" t="s">
         <v>1973</v>
       </c>
-      <c r="H732" s="91"/>
+      <c r="H732" s="87"/>
       <c r="J732" s="21" t="s">
         <v>1552</v>
       </c>
@@ -66130,7 +66248,7 @@
       <c r="G733" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H733" s="91"/>
+      <c r="H733" s="87"/>
       <c r="J733" s="21" t="s">
         <v>1552</v>
       </c>
@@ -66199,7 +66317,7 @@
       <c r="G734" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H734" s="91"/>
+      <c r="H734" s="87"/>
       <c r="J734" s="21" t="s">
         <v>1441</v>
       </c>
@@ -66268,7 +66386,7 @@
       <c r="G735" s="31" t="s">
         <v>1973</v>
       </c>
-      <c r="H735" s="91"/>
+      <c r="H735" s="87"/>
       <c r="J735" s="21" t="s">
         <v>1441</v>
       </c>
@@ -66337,7 +66455,7 @@
       <c r="G736" s="31" t="s">
         <v>1999</v>
       </c>
-      <c r="H736" s="91"/>
+      <c r="H736" s="87"/>
       <c r="J736" s="21" t="s">
         <v>1441</v>
       </c>
@@ -66406,7 +66524,7 @@
       <c r="G737" s="31" t="s">
         <v>2003</v>
       </c>
-      <c r="H737" s="91"/>
+      <c r="H737" s="87"/>
       <c r="J737" s="21" t="s">
         <v>1441</v>
       </c>
@@ -66462,8 +66580,839 @@
         <v>1</v>
       </c>
     </row>
+    <row r="738" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A738" s="86">
+        <v>737</v>
+      </c>
+      <c r="B738" s="86">
+        <v>10654</v>
+      </c>
+      <c r="F738" s="86">
+        <v>1</v>
+      </c>
+      <c r="G738" s="86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H738" s="92" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J738" s="86" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K738" s="86" t="s">
+        <v>2008</v>
+      </c>
+      <c r="M738" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N738" s="86">
+        <v>0</v>
+      </c>
+      <c r="O738" s="86">
+        <v>0</v>
+      </c>
+      <c r="P738" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q738" s="86">
+        <v>600</v>
+      </c>
+      <c r="R738" s="86" t="s">
+        <v>2009</v>
+      </c>
+      <c r="S738" s="75" t="s">
+        <v>2010</v>
+      </c>
+      <c r="X738" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y738" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z738" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA738" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB738" s="86">
+        <v>76</v>
+      </c>
+      <c r="AI738" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ738" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM738" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN738" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A739" s="86">
+        <v>738</v>
+      </c>
+      <c r="B739" s="86">
+        <v>10655</v>
+      </c>
+      <c r="F739" s="86">
+        <v>1</v>
+      </c>
+      <c r="G739" s="86" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H739" s="92"/>
+      <c r="J739" s="86" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K739" s="86" t="s">
+        <v>2012</v>
+      </c>
+      <c r="M739" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N739" s="86">
+        <v>0</v>
+      </c>
+      <c r="O739" s="86">
+        <v>0</v>
+      </c>
+      <c r="P739" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q739" s="86">
+        <v>1000</v>
+      </c>
+      <c r="R739" s="86" t="s">
+        <v>2009</v>
+      </c>
+      <c r="S739" s="75" t="s">
+        <v>2013</v>
+      </c>
+      <c r="X739" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y739" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z739" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA739" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB739" s="86">
+        <v>76</v>
+      </c>
+      <c r="AI739" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ739" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM739" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN739" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A740" s="86">
+        <v>739</v>
+      </c>
+      <c r="B740" s="86">
+        <v>10656</v>
+      </c>
+      <c r="F740" s="86">
+        <v>1</v>
+      </c>
+      <c r="G740" s="86" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H740" s="92"/>
+      <c r="J740" s="86" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K740" s="86" t="s">
+        <v>2015</v>
+      </c>
+      <c r="M740" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N740" s="86">
+        <v>0</v>
+      </c>
+      <c r="O740" s="86">
+        <v>0</v>
+      </c>
+      <c r="P740" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q740" s="86">
+        <v>1800</v>
+      </c>
+      <c r="R740" s="86" t="s">
+        <v>2009</v>
+      </c>
+      <c r="S740" s="75" t="s">
+        <v>2016</v>
+      </c>
+      <c r="X740" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y740" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z740" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA740" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB740" s="86">
+        <v>76</v>
+      </c>
+      <c r="AI740" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ740" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM740" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN740" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A741" s="86">
+        <v>740</v>
+      </c>
+      <c r="B741" s="86">
+        <v>10657</v>
+      </c>
+      <c r="F741" s="86">
+        <v>1</v>
+      </c>
+      <c r="G741" s="86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H741" s="92"/>
+      <c r="J741" s="86" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K741" s="86" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M741" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N741" s="86">
+        <v>0</v>
+      </c>
+      <c r="O741" s="86">
+        <v>0</v>
+      </c>
+      <c r="P741" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q741" s="86">
+        <v>1800</v>
+      </c>
+      <c r="R741" s="86" t="s">
+        <v>2009</v>
+      </c>
+      <c r="S741" s="75" t="s">
+        <v>2018</v>
+      </c>
+      <c r="X741" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y741" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z741" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA741" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB741" s="86">
+        <v>77</v>
+      </c>
+      <c r="AI741" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ741" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM741" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN741" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A742" s="86">
+        <v>741</v>
+      </c>
+      <c r="B742" s="86">
+        <v>10658</v>
+      </c>
+      <c r="F742" s="86">
+        <v>1</v>
+      </c>
+      <c r="G742" s="86" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H742" s="92"/>
+      <c r="J742" s="86" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K742" s="86" t="s">
+        <v>2019</v>
+      </c>
+      <c r="M742" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N742" s="86">
+        <v>0</v>
+      </c>
+      <c r="O742" s="86">
+        <v>0</v>
+      </c>
+      <c r="P742" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q742" s="86">
+        <v>3000</v>
+      </c>
+      <c r="R742" s="86" t="s">
+        <v>2009</v>
+      </c>
+      <c r="S742" s="75" t="s">
+        <v>2020</v>
+      </c>
+      <c r="X742" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y742" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z742" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA742" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB742" s="86">
+        <v>77</v>
+      </c>
+      <c r="AI742" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ742" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM742" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN742" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A743" s="86">
+        <v>742</v>
+      </c>
+      <c r="B743" s="86">
+        <v>10659</v>
+      </c>
+      <c r="F743" s="86">
+        <v>1</v>
+      </c>
+      <c r="G743" s="86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H743" s="92"/>
+      <c r="J743" s="86" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K743" s="86" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M743" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N743" s="86">
+        <v>0</v>
+      </c>
+      <c r="O743" s="86">
+        <v>0</v>
+      </c>
+      <c r="P743" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q743" s="86">
+        <v>4800</v>
+      </c>
+      <c r="R743" s="86" t="s">
+        <v>2009</v>
+      </c>
+      <c r="S743" s="75" t="s">
+        <v>2022</v>
+      </c>
+      <c r="X743" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y743" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z743" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA743" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB743" s="86">
+        <v>77</v>
+      </c>
+      <c r="AI743" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ743" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM743" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN743" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="86">
+        <v>743</v>
+      </c>
+      <c r="B744" s="86">
+        <v>10660</v>
+      </c>
+      <c r="F744" s="86">
+        <v>1</v>
+      </c>
+      <c r="G744" s="86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H744" s="92"/>
+      <c r="J744" s="86" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K744" s="86" t="s">
+        <v>2023</v>
+      </c>
+      <c r="M744" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N744" s="86">
+        <v>0</v>
+      </c>
+      <c r="O744" s="86">
+        <v>0</v>
+      </c>
+      <c r="P744" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q744" s="86">
+        <v>4800</v>
+      </c>
+      <c r="R744" s="86" t="s">
+        <v>2024</v>
+      </c>
+      <c r="S744" s="75" t="s">
+        <v>2025</v>
+      </c>
+      <c r="X744" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y744" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z744" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA744" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB744" s="86">
+        <v>78</v>
+      </c>
+      <c r="AI744" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ744" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM744" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN744" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A745" s="86">
+        <v>744</v>
+      </c>
+      <c r="B745" s="86">
+        <v>10661</v>
+      </c>
+      <c r="F745" s="86">
+        <v>1</v>
+      </c>
+      <c r="G745" s="86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H745" s="92"/>
+      <c r="J745" s="86" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K745" s="86" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M745" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N745" s="86">
+        <v>0</v>
+      </c>
+      <c r="O745" s="86">
+        <v>0</v>
+      </c>
+      <c r="P745" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q745" s="86">
+        <v>9800</v>
+      </c>
+      <c r="R745" s="86" t="s">
+        <v>2024</v>
+      </c>
+      <c r="S745" s="75" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X745" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y745" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z745" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA745" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB745" s="86">
+        <v>78</v>
+      </c>
+      <c r="AI745" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ745" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM745" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN745" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A746" s="86">
+        <v>745</v>
+      </c>
+      <c r="B746" s="86">
+        <v>10662</v>
+      </c>
+      <c r="F746" s="86">
+        <v>1</v>
+      </c>
+      <c r="G746" s="86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H746" s="92"/>
+      <c r="J746" s="86" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K746" s="86" t="s">
+        <v>2029</v>
+      </c>
+      <c r="M746" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N746" s="86">
+        <v>0</v>
+      </c>
+      <c r="O746" s="86">
+        <v>0</v>
+      </c>
+      <c r="P746" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q746" s="86">
+        <v>19800</v>
+      </c>
+      <c r="R746" s="86" t="s">
+        <v>2030</v>
+      </c>
+      <c r="S746" s="75" t="s">
+        <v>2031</v>
+      </c>
+      <c r="X746" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y746" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z746" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA746" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB746" s="86">
+        <v>78</v>
+      </c>
+      <c r="AI746" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ746" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM746" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN746" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A747" s="86">
+        <v>746</v>
+      </c>
+      <c r="B747" s="86">
+        <v>10663</v>
+      </c>
+      <c r="F747" s="86">
+        <v>1</v>
+      </c>
+      <c r="G747" s="86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H747" s="92"/>
+      <c r="J747" s="86" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K747" s="86" t="s">
+        <v>2026</v>
+      </c>
+      <c r="M747" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N747" s="86">
+        <v>0</v>
+      </c>
+      <c r="O747" s="86">
+        <v>0</v>
+      </c>
+      <c r="P747" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q747" s="86">
+        <v>9800</v>
+      </c>
+      <c r="R747" s="86" t="s">
+        <v>2030</v>
+      </c>
+      <c r="S747" s="75" t="s">
+        <v>2028</v>
+      </c>
+      <c r="X747" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y747" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z747" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA747" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB747" s="86">
+        <v>79</v>
+      </c>
+      <c r="AI747" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ747" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM747" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN747" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A748" s="86">
+        <v>747</v>
+      </c>
+      <c r="B748" s="86">
+        <v>10664</v>
+      </c>
+      <c r="F748" s="86">
+        <v>1</v>
+      </c>
+      <c r="G748" s="86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H748" s="92"/>
+      <c r="J748" s="86" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K748" s="86" t="s">
+        <v>2029</v>
+      </c>
+      <c r="M748" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N748" s="86">
+        <v>0</v>
+      </c>
+      <c r="O748" s="86">
+        <v>0</v>
+      </c>
+      <c r="P748" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q748" s="86">
+        <v>19800</v>
+      </c>
+      <c r="R748" s="86" t="s">
+        <v>2030</v>
+      </c>
+      <c r="S748" s="75" t="s">
+        <v>2032</v>
+      </c>
+      <c r="X748" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y748" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z748" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA748" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB748" s="86">
+        <v>79</v>
+      </c>
+      <c r="AI748" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ748" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM748" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN748" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:40" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A749" s="86">
+        <v>748</v>
+      </c>
+      <c r="B749" s="86">
+        <v>10665</v>
+      </c>
+      <c r="F749" s="86">
+        <v>1</v>
+      </c>
+      <c r="G749" s="86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H749" s="92"/>
+      <c r="J749" s="86" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K749" s="86" t="s">
+        <v>2033</v>
+      </c>
+      <c r="M749" s="86">
+        <v>-31</v>
+      </c>
+      <c r="N749" s="86">
+        <v>0</v>
+      </c>
+      <c r="O749" s="86">
+        <v>0</v>
+      </c>
+      <c r="P749" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q749" s="86">
+        <v>49800</v>
+      </c>
+      <c r="R749" s="86" t="s">
+        <v>2030</v>
+      </c>
+      <c r="S749" s="75" t="s">
+        <v>2034</v>
+      </c>
+      <c r="X749" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y749" s="86">
+        <v>99999999</v>
+      </c>
+      <c r="Z749" s="86">
+        <v>1636416000</v>
+      </c>
+      <c r="AA749" s="86">
+        <v>1636991999</v>
+      </c>
+      <c r="AB749" s="86">
+        <v>79</v>
+      </c>
+      <c r="AI749" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ749" s="86">
+        <v>1</v>
+      </c>
+      <c r="AM749" s="86">
+        <v>1</v>
+      </c>
+      <c r="AN749" s="86">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H738:H749"/>
     <mergeCell ref="H726:H737"/>
     <mergeCell ref="H683:H688"/>
     <mergeCell ref="H689:H694"/>

--- a/config_11.9/shoping_config_cjj.xlsx
+++ b/config_11.9/shoping_config_cjj.xlsx
@@ -8075,7 +8075,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8337,6 +8337,12 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8351,9 +8357,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10814,10 +10817,10 @@
   <dimension ref="A1:AIG749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H724" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W724" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A738" sqref="A738:XFD749"/>
+      <selection pane="bottomRight" activeCell="Z750" sqref="Z750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -60866,7 +60869,7 @@
       <c r="G655" s="79" t="s">
         <v>1902</v>
       </c>
-      <c r="H655" s="90" t="s">
+      <c r="H655" s="92" t="s">
         <v>1903</v>
       </c>
       <c r="K655" s="79" t="s">
@@ -60934,7 +60937,7 @@
       <c r="G656" s="78" t="s">
         <v>1904</v>
       </c>
-      <c r="H656" s="91"/>
+      <c r="H656" s="93"/>
       <c r="K656" s="79" t="s">
         <v>1608</v>
       </c>
@@ -61000,7 +61003,7 @@
       <c r="G657" s="78" t="s">
         <v>1905</v>
       </c>
-      <c r="H657" s="91"/>
+      <c r="H657" s="93"/>
       <c r="K657" s="79" t="s">
         <v>1609</v>
       </c>
@@ -61066,7 +61069,7 @@
       <c r="G658" s="78" t="s">
         <v>1907</v>
       </c>
-      <c r="H658" s="91"/>
+      <c r="H658" s="93"/>
       <c r="K658" s="79" t="s">
         <v>1611</v>
       </c>
@@ -61132,7 +61135,7 @@
       <c r="G659" s="78" t="s">
         <v>1908</v>
       </c>
-      <c r="H659" s="91"/>
+      <c r="H659" s="93"/>
       <c r="K659" s="79" t="s">
         <v>1612</v>
       </c>
@@ -61198,7 +61201,7 @@
       <c r="G660" s="78" t="s">
         <v>1909</v>
       </c>
-      <c r="H660" s="91"/>
+      <c r="H660" s="93"/>
       <c r="K660" s="79" t="s">
         <v>1613</v>
       </c>
@@ -61264,7 +61267,7 @@
       <c r="G661" s="78" t="s">
         <v>1911</v>
       </c>
-      <c r="H661" s="91"/>
+      <c r="H661" s="93"/>
       <c r="K661" s="79" t="s">
         <v>1615</v>
       </c>
@@ -62821,7 +62824,7 @@
       <c r="G683" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H683" s="88" t="s">
+      <c r="H683" s="90" t="s">
         <v>1898</v>
       </c>
       <c r="K683" s="76" t="s">
@@ -62889,7 +62892,7 @@
       <c r="G684" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H684" s="88"/>
+      <c r="H684" s="90"/>
       <c r="K684" s="76" t="s">
         <v>1575</v>
       </c>
@@ -62955,7 +62958,7 @@
       <c r="G685" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H685" s="88"/>
+      <c r="H685" s="90"/>
       <c r="K685" s="76" t="s">
         <v>1577</v>
       </c>
@@ -63021,7 +63024,7 @@
       <c r="G686" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H686" s="88"/>
+      <c r="H686" s="90"/>
       <c r="K686" s="76" t="s">
         <v>1579</v>
       </c>
@@ -63087,7 +63090,7 @@
       <c r="G687" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H687" s="88"/>
+      <c r="H687" s="90"/>
       <c r="K687" s="76" t="s">
         <v>1581</v>
       </c>
@@ -63153,7 +63156,7 @@
       <c r="G688" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H688" s="88"/>
+      <c r="H688" s="90"/>
       <c r="K688" s="76" t="s">
         <v>1583</v>
       </c>
@@ -63219,7 +63222,7 @@
       <c r="G689" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H689" s="88" t="s">
+      <c r="H689" s="90" t="s">
         <v>1899</v>
       </c>
       <c r="K689" s="76" t="s">
@@ -63287,7 +63290,7 @@
       <c r="G690" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H690" s="89"/>
+      <c r="H690" s="91"/>
       <c r="K690" s="76" t="s">
         <v>1575</v>
       </c>
@@ -63353,7 +63356,7 @@
       <c r="G691" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H691" s="89"/>
+      <c r="H691" s="91"/>
       <c r="K691" s="76" t="s">
         <v>1577</v>
       </c>
@@ -63419,7 +63422,7 @@
       <c r="G692" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H692" s="89"/>
+      <c r="H692" s="91"/>
       <c r="K692" s="76" t="s">
         <v>1579</v>
       </c>
@@ -63485,7 +63488,7 @@
       <c r="G693" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H693" s="89"/>
+      <c r="H693" s="91"/>
       <c r="K693" s="76" t="s">
         <v>1581</v>
       </c>
@@ -63551,7 +63554,7 @@
       <c r="G694" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H694" s="89"/>
+      <c r="H694" s="91"/>
       <c r="K694" s="76" t="s">
         <v>1583</v>
       </c>
@@ -63848,7 +63851,7 @@
       <c r="G698" s="79" t="s">
         <v>1901</v>
       </c>
-      <c r="H698" s="90" t="s">
+      <c r="H698" s="92" t="s">
         <v>1874</v>
       </c>
       <c r="K698" s="79" t="s">
@@ -63916,7 +63919,7 @@
       <c r="G699" s="78" t="s">
         <v>1904</v>
       </c>
-      <c r="H699" s="91"/>
+      <c r="H699" s="93"/>
       <c r="K699" s="79" t="s">
         <v>1608</v>
       </c>
@@ -63982,7 +63985,7 @@
       <c r="G700" s="78" t="s">
         <v>1905</v>
       </c>
-      <c r="H700" s="91"/>
+      <c r="H700" s="93"/>
       <c r="K700" s="79" t="s">
         <v>1609</v>
       </c>
@@ -64048,7 +64051,7 @@
       <c r="G701" s="78" t="s">
         <v>1906</v>
       </c>
-      <c r="H701" s="91"/>
+      <c r="H701" s="93"/>
       <c r="K701" s="79" t="s">
         <v>1611</v>
       </c>
@@ -64114,7 +64117,7 @@
       <c r="G702" s="78" t="s">
         <v>1908</v>
       </c>
-      <c r="H702" s="91"/>
+      <c r="H702" s="93"/>
       <c r="K702" s="79" t="s">
         <v>1612</v>
       </c>
@@ -64180,7 +64183,7 @@
       <c r="G703" s="78" t="s">
         <v>1909</v>
       </c>
-      <c r="H703" s="91"/>
+      <c r="H703" s="93"/>
       <c r="K703" s="79" t="s">
         <v>1613</v>
       </c>
@@ -64246,7 +64249,7 @@
       <c r="G704" s="78" t="s">
         <v>1910</v>
       </c>
-      <c r="H704" s="91"/>
+      <c r="H704" s="93"/>
       <c r="K704" s="79" t="s">
         <v>1615</v>
       </c>
@@ -64600,7 +64603,7 @@
       <c r="G709" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H709" s="92" t="s">
+      <c r="H709" s="88" t="s">
         <v>1914</v>
       </c>
       <c r="J709" s="85" t="s">
@@ -64671,7 +64674,7 @@
       <c r="G710" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H710" s="92"/>
+      <c r="H710" s="88"/>
       <c r="J710" s="85" t="s">
         <v>1538</v>
       </c>
@@ -64740,7 +64743,7 @@
       <c r="G711" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H711" s="92"/>
+      <c r="H711" s="88"/>
       <c r="J711" s="85" t="s">
         <v>1538</v>
       </c>
@@ -64809,7 +64812,7 @@
       <c r="G712" s="85" t="s">
         <v>1940</v>
       </c>
-      <c r="H712" s="92"/>
+      <c r="H712" s="88"/>
       <c r="J712" s="85" t="s">
         <v>1538</v>
       </c>
@@ -64878,7 +64881,7 @@
       <c r="G713" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H713" s="92"/>
+      <c r="H713" s="88"/>
       <c r="J713" s="85" t="s">
         <v>1545</v>
       </c>
@@ -64947,7 +64950,7 @@
       <c r="G714" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H714" s="92"/>
+      <c r="H714" s="88"/>
       <c r="J714" s="85" t="s">
         <v>1545</v>
       </c>
@@ -65016,7 +65019,7 @@
       <c r="G715" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H715" s="92"/>
+      <c r="H715" s="88"/>
       <c r="J715" s="85" t="s">
         <v>1545</v>
       </c>
@@ -65085,7 +65088,7 @@
       <c r="G716" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H716" s="92"/>
+      <c r="H716" s="88"/>
       <c r="J716" s="85" t="s">
         <v>1545</v>
       </c>
@@ -65154,7 +65157,7 @@
       <c r="G717" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H717" s="92"/>
+      <c r="H717" s="88"/>
       <c r="J717" s="85" t="s">
         <v>1552</v>
       </c>
@@ -65223,7 +65226,7 @@
       <c r="G718" s="85" t="s">
         <v>1913</v>
       </c>
-      <c r="H718" s="92"/>
+      <c r="H718" s="88"/>
       <c r="J718" s="85" t="s">
         <v>1552</v>
       </c>
@@ -65292,7 +65295,7 @@
       <c r="G719" s="85" t="s">
         <v>1940</v>
       </c>
-      <c r="H719" s="92"/>
+      <c r="H719" s="88"/>
       <c r="J719" s="85" t="s">
         <v>1552</v>
       </c>
@@ -65361,7 +65364,7 @@
       <c r="G720" s="85" t="s">
         <v>1947</v>
       </c>
-      <c r="H720" s="92"/>
+      <c r="H720" s="88"/>
       <c r="J720" s="85" t="s">
         <v>1552</v>
       </c>
@@ -65430,7 +65433,7 @@
       <c r="G721" s="85" t="s">
         <v>1947</v>
       </c>
-      <c r="H721" s="92"/>
+      <c r="H721" s="88"/>
       <c r="J721" s="85" t="s">
         <v>1441</v>
       </c>
@@ -65499,7 +65502,7 @@
       <c r="G722" s="85" t="s">
         <v>1956</v>
       </c>
-      <c r="H722" s="92"/>
+      <c r="H722" s="88"/>
       <c r="J722" s="85" t="s">
         <v>1441</v>
       </c>
@@ -65568,7 +65571,7 @@
       <c r="G723" s="85" t="s">
         <v>1956</v>
       </c>
-      <c r="H723" s="92"/>
+      <c r="H723" s="88"/>
       <c r="J723" s="85" t="s">
         <v>1441</v>
       </c>
@@ -65637,7 +65640,7 @@
       <c r="G724" s="85" t="s">
         <v>1963</v>
       </c>
-      <c r="H724" s="92"/>
+      <c r="H724" s="88"/>
       <c r="J724" s="85" t="s">
         <v>1441</v>
       </c>
@@ -65763,7 +65766,7 @@
       <c r="G726" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H726" s="87" t="s">
+      <c r="H726" s="89" t="s">
         <v>1969</v>
       </c>
       <c r="J726" s="21" t="s">
@@ -65834,7 +65837,7 @@
       <c r="G727" s="31" t="s">
         <v>1973</v>
       </c>
-      <c r="H727" s="87"/>
+      <c r="H727" s="89"/>
       <c r="J727" s="21" t="s">
         <v>1545</v>
       </c>
@@ -65903,7 +65906,7 @@
       <c r="G728" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H728" s="87"/>
+      <c r="H728" s="89"/>
       <c r="J728" s="21" t="s">
         <v>1545</v>
       </c>
@@ -65972,7 +65975,7 @@
       <c r="G729" s="31" t="s">
         <v>1973</v>
       </c>
-      <c r="H729" s="87"/>
+      <c r="H729" s="89"/>
       <c r="J729" s="21" t="s">
         <v>1545</v>
       </c>
@@ -66041,7 +66044,7 @@
       <c r="G730" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H730" s="87"/>
+      <c r="H730" s="89"/>
       <c r="J730" s="21" t="s">
         <v>1552</v>
       </c>
@@ -66110,7 +66113,7 @@
       <c r="G731" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H731" s="87"/>
+      <c r="H731" s="89"/>
       <c r="J731" s="21" t="s">
         <v>1552</v>
       </c>
@@ -66179,7 +66182,7 @@
       <c r="G732" s="31" t="s">
         <v>1973</v>
       </c>
-      <c r="H732" s="87"/>
+      <c r="H732" s="89"/>
       <c r="J732" s="21" t="s">
         <v>1552</v>
       </c>
@@ -66248,7 +66251,7 @@
       <c r="G733" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H733" s="87"/>
+      <c r="H733" s="89"/>
       <c r="J733" s="21" t="s">
         <v>1552</v>
       </c>
@@ -66317,7 +66320,7 @@
       <c r="G734" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="H734" s="87"/>
+      <c r="H734" s="89"/>
       <c r="J734" s="21" t="s">
         <v>1441</v>
       </c>
@@ -66386,7 +66389,7 @@
       <c r="G735" s="31" t="s">
         <v>1973</v>
       </c>
-      <c r="H735" s="87"/>
+      <c r="H735" s="89"/>
       <c r="J735" s="21" t="s">
         <v>1441</v>
       </c>
@@ -66455,7 +66458,7 @@
       <c r="G736" s="31" t="s">
         <v>1999</v>
       </c>
-      <c r="H736" s="87"/>
+      <c r="H736" s="89"/>
       <c r="J736" s="21" t="s">
         <v>1441</v>
       </c>
@@ -66524,7 +66527,7 @@
       <c r="G737" s="31" t="s">
         <v>2003</v>
       </c>
-      <c r="H737" s="87"/>
+      <c r="H737" s="89"/>
       <c r="J737" s="21" t="s">
         <v>1441</v>
       </c>
@@ -66593,7 +66596,7 @@
       <c r="G738" s="86" t="s">
         <v>2006</v>
       </c>
-      <c r="H738" s="92" t="s">
+      <c r="H738" s="88" t="s">
         <v>2007</v>
       </c>
       <c r="J738" s="86" t="s">
@@ -66633,7 +66636,7 @@
         <v>1636416000</v>
       </c>
       <c r="AA738" s="86">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
       <c r="AB738" s="86">
         <v>76</v>
@@ -66664,7 +66667,7 @@
       <c r="G739" s="86" t="s">
         <v>2011</v>
       </c>
-      <c r="H739" s="92"/>
+      <c r="H739" s="88"/>
       <c r="J739" s="86" t="s">
         <v>1538</v>
       </c>
@@ -66702,7 +66705,7 @@
         <v>1636416000</v>
       </c>
       <c r="AA739" s="86">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
       <c r="AB739" s="86">
         <v>76</v>
@@ -66733,7 +66736,7 @@
       <c r="G740" s="86" t="s">
         <v>2014</v>
       </c>
-      <c r="H740" s="92"/>
+      <c r="H740" s="88"/>
       <c r="J740" s="86" t="s">
         <v>1538</v>
       </c>
@@ -66770,8 +66773,8 @@
       <c r="Z740" s="86">
         <v>1636416000</v>
       </c>
-      <c r="AA740" s="86">
-        <v>1636991999</v>
+      <c r="AA740" s="87">
+        <v>1637596799</v>
       </c>
       <c r="AB740" s="86">
         <v>76</v>
@@ -66802,7 +66805,7 @@
       <c r="G741" s="86" t="s">
         <v>2006</v>
       </c>
-      <c r="H741" s="92"/>
+      <c r="H741" s="88"/>
       <c r="J741" s="86" t="s">
         <v>1545</v>
       </c>
@@ -66839,8 +66842,8 @@
       <c r="Z741" s="86">
         <v>1636416000</v>
       </c>
-      <c r="AA741" s="86">
-        <v>1636991999</v>
+      <c r="AA741" s="87">
+        <v>1637596799</v>
       </c>
       <c r="AB741" s="86">
         <v>77</v>
@@ -66871,7 +66874,7 @@
       <c r="G742" s="86" t="s">
         <v>2014</v>
       </c>
-      <c r="H742" s="92"/>
+      <c r="H742" s="88"/>
       <c r="J742" s="86" t="s">
         <v>1545</v>
       </c>
@@ -66908,8 +66911,8 @@
       <c r="Z742" s="86">
         <v>1636416000</v>
       </c>
-      <c r="AA742" s="86">
-        <v>1636991999</v>
+      <c r="AA742" s="87">
+        <v>1637596799</v>
       </c>
       <c r="AB742" s="86">
         <v>77</v>
@@ -66940,7 +66943,7 @@
       <c r="G743" s="86" t="s">
         <v>2006</v>
       </c>
-      <c r="H743" s="92"/>
+      <c r="H743" s="88"/>
       <c r="J743" s="86" t="s">
         <v>1545</v>
       </c>
@@ -66977,8 +66980,8 @@
       <c r="Z743" s="86">
         <v>1636416000</v>
       </c>
-      <c r="AA743" s="86">
-        <v>1636991999</v>
+      <c r="AA743" s="87">
+        <v>1637596799</v>
       </c>
       <c r="AB743" s="86">
         <v>77</v>
@@ -67009,7 +67012,7 @@
       <c r="G744" s="86" t="s">
         <v>2006</v>
       </c>
-      <c r="H744" s="92"/>
+      <c r="H744" s="88"/>
       <c r="J744" s="86" t="s">
         <v>1552</v>
       </c>
@@ -67046,8 +67049,8 @@
       <c r="Z744" s="86">
         <v>1636416000</v>
       </c>
-      <c r="AA744" s="86">
-        <v>1636991999</v>
+      <c r="AA744" s="87">
+        <v>1637596799</v>
       </c>
       <c r="AB744" s="86">
         <v>78</v>
@@ -67078,7 +67081,7 @@
       <c r="G745" s="86" t="s">
         <v>2006</v>
       </c>
-      <c r="H745" s="92"/>
+      <c r="H745" s="88"/>
       <c r="J745" s="86" t="s">
         <v>1552</v>
       </c>
@@ -67115,8 +67118,8 @@
       <c r="Z745" s="86">
         <v>1636416000</v>
       </c>
-      <c r="AA745" s="86">
-        <v>1636991999</v>
+      <c r="AA745" s="87">
+        <v>1637596799</v>
       </c>
       <c r="AB745" s="86">
         <v>78</v>
@@ -67147,7 +67150,7 @@
       <c r="G746" s="86" t="s">
         <v>2006</v>
       </c>
-      <c r="H746" s="92"/>
+      <c r="H746" s="88"/>
       <c r="J746" s="86" t="s">
         <v>1552</v>
       </c>
@@ -67184,8 +67187,8 @@
       <c r="Z746" s="86">
         <v>1636416000</v>
       </c>
-      <c r="AA746" s="86">
-        <v>1636991999</v>
+      <c r="AA746" s="87">
+        <v>1637596799</v>
       </c>
       <c r="AB746" s="86">
         <v>78</v>
@@ -67216,7 +67219,7 @@
       <c r="G747" s="86" t="s">
         <v>2006</v>
       </c>
-      <c r="H747" s="92"/>
+      <c r="H747" s="88"/>
       <c r="J747" s="86" t="s">
         <v>1441</v>
       </c>
@@ -67253,8 +67256,8 @@
       <c r="Z747" s="86">
         <v>1636416000</v>
       </c>
-      <c r="AA747" s="86">
-        <v>1636991999</v>
+      <c r="AA747" s="87">
+        <v>1637596799</v>
       </c>
       <c r="AB747" s="86">
         <v>79</v>
@@ -67285,7 +67288,7 @@
       <c r="G748" s="86" t="s">
         <v>2006</v>
       </c>
-      <c r="H748" s="92"/>
+      <c r="H748" s="88"/>
       <c r="J748" s="86" t="s">
         <v>1441</v>
       </c>
@@ -67322,8 +67325,8 @@
       <c r="Z748" s="86">
         <v>1636416000</v>
       </c>
-      <c r="AA748" s="86">
-        <v>1636991999</v>
+      <c r="AA748" s="87">
+        <v>1637596799</v>
       </c>
       <c r="AB748" s="86">
         <v>79</v>
@@ -67354,7 +67357,7 @@
       <c r="G749" s="86" t="s">
         <v>2006</v>
       </c>
-      <c r="H749" s="92"/>
+      <c r="H749" s="88"/>
       <c r="J749" s="86" t="s">
         <v>1441</v>
       </c>
@@ -67391,8 +67394,8 @@
       <c r="Z749" s="86">
         <v>1636416000</v>
       </c>
-      <c r="AA749" s="86">
-        <v>1636991999</v>
+      <c r="AA749" s="87">
+        <v>1637596799</v>
       </c>
       <c r="AB749" s="86">
         <v>79</v>

--- a/config_11.9/shoping_config_cjj.xlsx
+++ b/config_11.9/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5861" uniqueCount="2035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5867" uniqueCount="2041">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7848,6 +7848,30 @@
   </si>
   <si>
     <t>49800000,1688,10,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"额外比赛次数*10","1000万金币","66福利券","锁定*10","冰冻*10","狂暴*10",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_vip4_match","jing_bi","shop_gold_sum","prop_3d_fish_lock","prop_3d_fish_frozen","prop_3d_fish_wild",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10000000,66,10,10,10,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10814,13 +10838,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIG749"/>
+  <dimension ref="A1:AIG750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="W724" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z750" sqref="Z750"/>
+      <selection pane="bottomRight" activeCell="A750" sqref="A750:XFD750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -67413,6 +67437,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="750" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A750" s="21">
+        <v>749</v>
+      </c>
+      <c r="B750" s="31">
+        <v>10666</v>
+      </c>
+      <c r="F750" s="31">
+        <v>1</v>
+      </c>
+      <c r="G750" s="31" t="s">
+        <v>2035</v>
+      </c>
+      <c r="K750" s="31" t="s">
+        <v>2036</v>
+      </c>
+      <c r="M750" s="31">
+        <v>-31</v>
+      </c>
+      <c r="N750" s="31">
+        <v>0</v>
+      </c>
+      <c r="O750" s="31">
+        <v>0</v>
+      </c>
+      <c r="P750" s="31" t="s">
+        <v>2037</v>
+      </c>
+      <c r="Q750" s="31">
+        <v>9800</v>
+      </c>
+      <c r="R750" s="31" t="s">
+        <v>2038</v>
+      </c>
+      <c r="S750" s="56" t="s">
+        <v>2039</v>
+      </c>
+      <c r="X750" s="31" t="s">
+        <v>2040</v>
+      </c>
+      <c r="Y750" s="31">
+        <v>99999999</v>
+      </c>
+      <c r="Z750" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA750" s="31">
+        <v>2552233600</v>
+      </c>
+      <c r="AB750" s="31">
+        <v>14</v>
+      </c>
+      <c r="AI750" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ750" s="31">
+        <v>1</v>
+      </c>
+      <c r="AM750" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN750" s="31">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H738:H749"/>
